--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_5.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47604.57057562912</v>
+        <v>-47604.57057562909</v>
       </c>
     </row>
     <row r="7">
@@ -26323,10 +26325,10 @@
         <v>26524.82243781067</v>
       </c>
       <c r="F2" t="n">
+        <v>26524.82243781067</v>
+      </c>
+      <c r="G2" t="n">
         <v>26524.82243781066</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26524.82243781067</v>
       </c>
       <c r="H2" t="n">
         <v>26524.82243781066</v>
@@ -26338,22 +26340,22 @@
         <v>26524.82243781067</v>
       </c>
       <c r="K2" t="n">
+        <v>26524.82243781067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>26524.82243781067</v>
+      </c>
+      <c r="M2" t="n">
         <v>26524.82243781066</v>
       </c>
-      <c r="L2" t="n">
-        <v>26524.82243781066</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>26524.82243781067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>26524.82243781066</v>
       </c>
       <c r="O2" t="n">
         <v>26524.82243781067</v>
       </c>
       <c r="P2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
     </row>
     <row r="3">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28322.63551243786</v>
+        <v>-28322.63551243785</v>
       </c>
       <c r="C6" t="n">
-        <v>-28322.63551243786</v>
+        <v>-28322.63551243785</v>
       </c>
       <c r="D6" t="n">
-        <v>-28322.63551243786</v>
+        <v>-28322.63551243785</v>
       </c>
       <c r="E6" t="n">
+        <v>5304.964487562145</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5304.964487562145</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5304.964487562138</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5304.964487562138</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5304.964487562138</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5304.964487562145</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5304.964487562145</v>
+      </c>
+      <c r="L6" t="n">
         <v>5304.964487562142</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5304.964487562134</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5304.964487562142</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5304.964487562134</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5304.964487562134</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5304.964487562142</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5304.964487562131</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5304.964487562131</v>
       </c>
       <c r="M6" t="n">
         <v>5304.964487562138</v>
       </c>
       <c r="N6" t="n">
-        <v>5304.964487562131</v>
+        <v>5304.964487562145</v>
       </c>
       <c r="O6" t="n">
+        <v>5304.964487562145</v>
+      </c>
+      <c r="P6" t="n">
         <v>5304.964487562142</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5304.964487562131</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47604.57057562909</v>
+        <v>-173464.8234134841</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="C2" t="n">
         <v>26524.82243781067</v>
       </c>
       <c r="D2" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="E2" t="n">
         <v>26524.82243781067</v>
@@ -26328,13 +26328,13 @@
         <v>26524.82243781067</v>
       </c>
       <c r="G2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781068</v>
       </c>
       <c r="H2" t="n">
         <v>26524.82243781066</v>
       </c>
       <c r="I2" t="n">
-        <v>26524.82243781066</v>
+        <v>26524.82243781067</v>
       </c>
       <c r="J2" t="n">
         <v>26524.82243781067</v>
@@ -26343,10 +26343,10 @@
         <v>26524.82243781067</v>
       </c>
       <c r="L2" t="n">
+        <v>26524.82243781066</v>
+      </c>
+      <c r="M2" t="n">
         <v>26524.82243781067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>26524.82243781066</v>
       </c>
       <c r="N2" t="n">
         <v>26524.82243781067</v>
@@ -26355,7 +26355,7 @@
         <v>26524.82243781067</v>
       </c>
       <c r="P2" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28322.63551243785</v>
+        <v>-43365.65624024914</v>
       </c>
       <c r="C6" t="n">
-        <v>-28322.63551243785</v>
+        <v>-43365.65624024914</v>
       </c>
       <c r="D6" t="n">
-        <v>-28322.63551243785</v>
+        <v>-43365.65624024914</v>
       </c>
       <c r="E6" t="n">
-        <v>5304.964487562145</v>
+        <v>-9738.056240249138</v>
       </c>
       <c r="F6" t="n">
-        <v>5304.964487562145</v>
+        <v>-9738.056240249138</v>
       </c>
       <c r="G6" t="n">
-        <v>5304.964487562138</v>
+        <v>-9738.056240249134</v>
       </c>
       <c r="H6" t="n">
-        <v>5304.964487562138</v>
+        <v>-9738.056240249149</v>
       </c>
       <c r="I6" t="n">
-        <v>5304.964487562138</v>
+        <v>-9738.056240249141</v>
       </c>
       <c r="J6" t="n">
-        <v>5304.964487562145</v>
+        <v>-9738.056240249138</v>
       </c>
       <c r="K6" t="n">
-        <v>5304.964487562145</v>
+        <v>-9738.056240249141</v>
       </c>
       <c r="L6" t="n">
-        <v>5304.964487562142</v>
+        <v>-9738.056240249145</v>
       </c>
       <c r="M6" t="n">
-        <v>5304.964487562138</v>
+        <v>-9738.056240249138</v>
       </c>
       <c r="N6" t="n">
-        <v>5304.964487562145</v>
+        <v>-9738.056240249138</v>
       </c>
       <c r="O6" t="n">
-        <v>5304.964487562145</v>
+        <v>-9738.056240249141</v>
       </c>
       <c r="P6" t="n">
-        <v>5304.964487562142</v>
+        <v>-9738.056240249145</v>
       </c>
     </row>
   </sheetData>
